--- a/codigos_maringa.xlsx
+++ b/codigos_maringa.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hillebrande\Documents\Project_Alvara\Emissao_alvara\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Hdlogika\k\Backup_19_08_2021\Unidade_D\K\LEATICIA\Luiz Fernando\Alvara_Automation\Emissao_alvara\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76201FB-F89F-4455-973F-E9C767046A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F92709-5E07-45A9-ABD5-F1EF8FC29045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11295" xr2:uid="{35952A7F-2E92-4285-8237-1D11E69BF276}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{35952A7F-2E92-4285-8237-1D11E69BF276}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,15 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>EMPRESA</t>
-  </si>
-  <si>
-    <t>REF</t>
-  </si>
-  <si>
-    <t>T PR?</t>
   </si>
   <si>
     <t>ABRÃO &amp; SILVA LTDA</t>
@@ -84,10 +78,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,68 +395,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{178C561D-64BB-4C3D-B1CD-A73E6C26E961}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.140625" customWidth="1"/>
     <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <v>272935</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2">
-        <v>272935</v>
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>272953</v>
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>272935</v>
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2">
-        <v>272935</v>
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>272953</v>
       </c>
       <c r="C5" s="1"/>
     </row>
